--- a/2021Vue学习资料.xlsx
+++ b/2021Vue学习资料.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanguocong/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA542405-F452-5847-83B2-90069669E52D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CD0CF8-EECB-D84F-B186-DC7F7BA84D63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3300" yWindow="500" windowWidth="20460" windowHeight="15300" xr2:uid="{9F6C93C5-1CB6-A340-960D-723561BE40E3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>session1（0227上）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,10 @@
   </si>
   <si>
     <t>函数的扩展（箭头函数、rest剩余参数、this指向）set数据、class类、class继承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何创建 node 项目、如何下载包、如何卸载包、node 模块的分类以及导入导出、node 模块的导入,将模块分为三大类、学习vue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,8 +607,8 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="80" customHeight="1"/>
@@ -685,6 +689,9 @@
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="80" customHeight="1">
       <c r="A10" s="2" t="s">

--- a/2021Vue学习资料.xlsx
+++ b/2021Vue学习资料.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanguocong/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CD0CF8-EECB-D84F-B186-DC7F7BA84D63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A32E12A-F14F-AB43-A6BF-11B668CE9ABB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3300" yWindow="500" windowWidth="20460" windowHeight="15300" xr2:uid="{9F6C93C5-1CB6-A340-960D-723561BE40E3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>session1（0227上）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +99,10 @@
   </si>
   <si>
     <t>如何创建 node 项目、如何下载包、如何卸载包、node 模块的分类以及导入导出、node 模块的导入,将模块分为三大类、学习vue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vue 简介、如何开始一个 vue 项目、安装脚手架工具 cli、利用脚手架工具搭建 vue 项目、vue 项目默认的目录结构、vue 的基础知识、组件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -607,8 +611,8 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="80" customHeight="1"/>
@@ -697,6 +701,9 @@
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="80" customHeight="1">
       <c r="A11" s="2" t="s">

--- a/2021Vue学习资料.xlsx
+++ b/2021Vue学习资料.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanguocong/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A32E12A-F14F-AB43-A6BF-11B668CE9ABB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E703389C-C327-1447-BC7A-89DFDA5FA995}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3300" yWindow="500" windowWidth="20460" windowHeight="15300" xr2:uid="{9F6C93C5-1CB6-A340-960D-723561BE40E3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>session1（0227上）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,7 +102,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Vue 简介、如何开始一个 vue 项目、安装脚手架工具 cli、利用脚手架工具搭建 vue 项目、vue 项目默认的目录结构、vue 的基础知识、组件</t>
+    <t>Vue 简介、如何开始一个 vue 项目、安装脚手架工具 cli、利用脚手架工具搭建 vue 项目、vue 项目默认的目录结构、vue 的基础知识、组件、创建vue项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何开始一个 vue 项目、vue 项目默认的目录结构、vue 的基础知识、组件、如何划分组件、组件的嵌套、模板语法、prop、vue 指令（v-bind:(prop 可以通过 v-bind 动态赋值）、v-html、v-on:）、data 组件的数据（状态 state）创建 data，使用 data、事件处理（定义事件，绑定事件）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -110,7 +114,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -165,6 +169,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -206,7 +217,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -230,6 +241,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -611,8 +625,8 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="80" customHeight="1"/>
@@ -709,6 +723,9 @@
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="B11" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/2021Vue学习资料.xlsx
+++ b/2021Vue学习资料.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanguocong/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E703389C-C327-1447-BC7A-89DFDA5FA995}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4966C7BF-16EE-5949-9DB1-0745B233522B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3300" yWindow="500" windowWidth="20460" windowHeight="15300" xr2:uid="{9F6C93C5-1CB6-A340-960D-723561BE40E3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>session1（0227上）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,34 @@
   </si>
   <si>
     <t>如何开始一个 vue 项目、vue 项目默认的目录结构、vue 的基础知识、组件、如何划分组件、组件的嵌套、模板语法、prop、vue 指令（v-bind:(prop 可以通过 v-bind 动态赋值）、v-html、v-on:）、data 组件的数据（状态 state）创建 data，使用 data、事件处理（定义事件，绑定事件）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>session8（0311下）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>session9（0313上）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>session9（0313下）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>session10（0314上）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>session10（0314下）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vue 中 class 与 style 的绑定（普通的 JS 语法、对象语法、数组语法、数组语法嵌套对象语法）、条件渲染（v-show、v-if、v-else、v-else-if）、列表渲染（v-for）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vue- little-demo（swiper轮播图）、事件传参，使用事件对象，事件简写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -239,11 +267,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -623,10 +651,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="80" customHeight="1"/>
@@ -639,10 +667,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="80" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:4" ht="80" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -723,8 +751,39 @@
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="80" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="80" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="80" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="80" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="80" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/2021Vue学习资料.xlsx
+++ b/2021Vue学习资料.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanguocong/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4966C7BF-16EE-5949-9DB1-0745B233522B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7452F04-D7A8-9045-A914-5DC49D9F1CC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3300" yWindow="500" windowWidth="20460" windowHeight="15300" xr2:uid="{9F6C93C5-1CB6-A340-960D-723561BE40E3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>session1（0227上）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +135,10 @@
   </si>
   <si>
     <t>vue- little-demo（swiper轮播图）、事件传参，使用事件对象，事件简写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vue 实例生命周期钩子(beforeCreate、created、beforeMount、mounted、beforeUpdate、updated、beforeDestroy、destroyed)、组件之间的交互、element-ui，dialog（对话框弹出）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -653,8 +657,8 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="80" customHeight="1"/>
@@ -775,6 +779,9 @@
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="B14" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="80" customHeight="1">
       <c r="A15" s="2" t="s">
